--- a/data/import/Sentence.xlsx
+++ b/data/import/Sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F73FA50-A1B1-4F57-92BF-1FF467E4F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542058F-7ED0-4A53-8198-5BEF69AAFF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93C19C1D-677A-4672-8AD8-D91DE6B8969E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>imgSentence</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>g1-u6-exWashing.mp4</t>
+  </si>
+  <si>
+    <t>sen04</t>
+  </si>
+  <si>
+    <t>sen04Vi</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +532,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>

--- a/data/import/Sentence.xlsx
+++ b/data/import/Sentence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542058F-7ED0-4A53-8198-5BEF69AAFF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C833540-5092-4E25-997D-42B05A1F24BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93C19C1D-677A-4672-8AD8-D91DE6B8969E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>imgSentence</t>
   </si>
@@ -74,31 +74,91 @@
     <t>sen04audio</t>
   </si>
   <si>
-    <t>Bye, Bill.</t>
-  </si>
-  <si>
-    <t>Tạm biệt, Bill.</t>
-  </si>
-  <si>
-    <t>\n</t>
-  </si>
-  <si>
-    <t>g1-u2-car.png</t>
-  </si>
-  <si>
-    <t>g1-u6-exWashing.mp3</t>
-  </si>
-  <si>
-    <t>g1-u6-exWashing.mp2</t>
-  </si>
-  <si>
-    <t>g1-u6-exWashing.mp4</t>
-  </si>
-  <si>
     <t>sen04</t>
   </si>
   <si>
     <t>sen04Vi</t>
+  </si>
+  <si>
+    <t>g3-u1-l1-Sentence.png</t>
+  </si>
+  <si>
+    <t>g3-u3-l1-Sentence1.mp3</t>
+  </si>
+  <si>
+    <t>g3-u3-l1-Sentence.mp3</t>
+  </si>
+  <si>
+    <t>g3-u3-l1-Sentence2.mp3</t>
+  </si>
+  <si>
+    <t>g3-u3-l1-Sentence3.mp3</t>
+  </si>
+  <si>
+    <t>g3-u3-l1-Sentence4.mp3</t>
+  </si>
+  <si>
+    <t>Hello, I'm Lucy.</t>
+  </si>
+  <si>
+    <t>Xin chào, tôi là Lucy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, Lucy. I'm Minh. </t>
+  </si>
+  <si>
+    <t>Xin chào, Lucy. Tôi là Minh.</t>
+  </si>
+  <si>
+    <t>Ben: Hi. I'm Ben.</t>
+  </si>
+  <si>
+    <t>Chào, tôi là Ben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai: Hi, Ben. I'm Mai. </t>
+  </si>
+  <si>
+    <t>Chào Ben, tôi là Mai.</t>
+  </si>
+  <si>
+    <t>g3-u3-l2-Sentence.mp3</t>
+  </si>
+  <si>
+    <t>g3-u3-l2-Sentence1.mp3</t>
+  </si>
+  <si>
+    <t>g3-u3-l2-Sentence2.mp3</t>
+  </si>
+  <si>
+    <t>g3-u3-l2-Sentence3.mp3</t>
+  </si>
+  <si>
+    <t>g3-u3-l2-Sentence4.mp3</t>
+  </si>
+  <si>
+    <t>Hi. How are you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xin chào. Bạn có khỏe không?</t>
+  </si>
+  <si>
+    <t>Fine, thank you.</t>
+  </si>
+  <si>
+    <t>Khỏe, cám ơn.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodbye. </t>
+  </si>
+  <si>
+    <t>Tạm biệt.</t>
+  </si>
+  <si>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>g3-u1-l2-Sentence.png</t>
   </si>
 </sst>
 </file>
@@ -479,22 +539,23 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -532,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -543,90 +604,90 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/import/Sentence.xlsx
+++ b/data/import/Sentence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C833540-5092-4E25-997D-42B05A1F24BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A51A984-28B7-491A-9607-DA3B10618B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93C19C1D-677A-4672-8AD8-D91DE6B8969E}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
